--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4123\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E71AA4-A07A-4CC1-ACFA-54B206DAD614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TG_CCP" sheetId="1" r:id="rId1"/>
+    <sheet name="TG_OOS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="217">
   <si>
     <t>1,2,23</t>
   </si>
@@ -113,15 +115,6 @@
     <t>Exit due to Insufficient Balance, Card Info Re-Entered</t>
   </si>
   <si>
-    <t>Exit due to Insufficient Balance, Pin/CVC &amp; Card Info Re-Entered</t>
-  </si>
-  <si>
-    <t>Exit due to Incorrect Pin/CVC, Pin/CVC &amp; Card Info Re-Entered</t>
-  </si>
-  <si>
-    <t>Exit due to Incorrect Pin/CVC, Pin/CVC Info Re-Entered</t>
-  </si>
-  <si>
     <t>Exit Due to Payment Cancellation by User</t>
   </si>
   <si>
@@ -140,19 +133,556 @@
     <t>Transaction Successful, Re-Entered CVC/Pin Info</t>
   </si>
   <si>
-    <t>Transaction Successful, Re-Entered Pin/CVC &amp; Card Info</t>
-  </si>
-  <si>
     <t>Exit Due to Payment Cancellation by User, Card Info &amp; CVC/Pin Re-Entered</t>
   </si>
   <si>
     <t>Exit due to Invalid Card Info, Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC, Pin/CVC Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC, Card Info &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance, Card Info &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Transaction Successful, Re-Entered Card Info &amp; CVC/Pin</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,34,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,34,51,39</t>
+  </si>
+  <si>
+    <t>Exit due to Item Unavailable, User Logged-out</t>
+  </si>
+  <si>
+    <t>Exit due to Item Unavailable, User Logged-out, New User Registered</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,34,51,39</t>
+  </si>
+  <si>
+    <t>Exit due to Item Unavailable, User Logged-out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Item Unavailable, User Logged-out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,34,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,46,47,51,39</t>
+  </si>
+  <si>
+    <t>Exit due to Card Expired, User Logged-Out</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,46,47,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,46,47,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,46,47,51,39</t>
+  </si>
+  <si>
+    <t>Exit due to Card Expired, User Logged-Out, New User Registered</t>
+  </si>
+  <si>
+    <t>Exit due to Card Expired, User Logged-Out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Card Expired, User Logged-Out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,45,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,45,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,45,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,45,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,32,33,45,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,32,33,45,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,32,33,45,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,32,33,45,51,39</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Card Info (User Exit), User Logged-Out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Card Info (User Exit), User Logged-Out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Card Info (User Exit), User Logged-Out &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Card Info (User Exit), User Logged-Out</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Card Info (User Exit), User Logged-Out, New User Registered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Card Info (User Exit), User Logged-Out, New User Registered &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Card Info (User Exit), User Logged-Out, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Card Info (User Exit), User Logged-Out, New User Registered, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, New User Registered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, New User Registered &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, New User Registered, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,11,12,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,11,12,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,53,49,51,39</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, New User Registered, Credentials, Card Info &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, Credentials, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, New User Registered, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, New User Registered, Credentials &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, Credentials &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out, New User Registered &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Invalid Pin/CVC (User Exit), User Logged-Out  &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,11,12,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,11,12,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,52,50,51,39</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, New User Registered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, New User Registered &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, New User Registered, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out  &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, New User Registered &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, Credentials &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, New User Registered, Credentials &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, New User Registered, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, Credentials, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Insufficient Balance (User Exit), User Logged-Out, New User Registered, Credentials, Card Info &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,11,12,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,11,12,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,15,54,51,39</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, New User Registered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, New User Registered &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, New User Registered, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out  &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, New User Registered &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, Credentials &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, New User Registered, Credentials &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, New User Registered, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, Credentials, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation (User Exit), User Logged-Out, New User Registered, Credentials, Card Info &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful due to Cash On Delivery, User Logged-out</t>
+  </si>
+  <si>
+    <t>Payment Successful due to Cash On Delivery, User Logged-out, New User Registered</t>
+  </si>
+  <si>
+    <t>Payment Successful due to Cash On Delivery, User Logged-out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful due to Cash On Delivery, User Logged-out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,37,38,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,37,38,16,40,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,37,38,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,37,38,16,40,39</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation by User to Cash On Delivery, User Logged-out</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation by User to Cash On Delivery, User Logged-out, New User Registered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation by User to Cash On Delivery, User Logged-out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Exit due to Payment Cancellation by User to Cash On Delivery, User Logged-out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,37,38,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,37,38,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,37,38,54,51,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,37,38,54,51,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,11,12,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,11,12,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,11,12,13,53,48,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,2,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>1,18,19,3,4,20,3,4,5,6,7,8,9,35,36,10,32,33,44,10,11,12,13,53,48,13,14,15,16,40,39</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, New User Registered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, New User Registered &amp; Credentials Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, New User Registered &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, New User Registered, Credentials &amp; Card Info Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out  &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, New User Registered &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, Credentials &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, New User Registered, Credentials &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, New User Registered, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, Credentials, Card Info &amp; Pin/CVC  Re-Entered</t>
+  </si>
+  <si>
+    <t>Payment Successful (User Exit), User Logged-Out, New User Registered, Credentials, Card Info &amp; Pin/CVC Re-Entered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +716,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -229,10 +759,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -244,10 +774,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -259,10 +789,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -274,10 +804,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -286,13 +814,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -307,7 +848,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -316,54 +857,60 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -372,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,47 +930,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,11 +1261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,302 +1277,1344 @@
   <sheetData>
     <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="13">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="13">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="13">
+      <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="13">
+      <c r="C10" s="4">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="13">
+      <c r="C11" s="4">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="13">
+      <c r="C12" s="4">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="14"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="13">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="14"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="13">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="14"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="13">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="13">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="14"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="13">
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="14"/>
-      <c r="M17" s="20"/>
+      <c r="E17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="13">
+      <c r="C18" s="4">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="14"/>
-      <c r="M18" s="19"/>
+      <c r="E18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="13">
+      <c r="C19" s="4">
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="13">
+      <c r="C20" s="4">
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="13">
+      <c r="C21" s="4">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="14"/>
+      <c r="E21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="13">
+      <c r="C22" s="4">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="13">
+      <c r="C23" s="4">
         <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="13">
+      <c r="C24" s="4">
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="13">
+      <c r="E24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
         <v>19</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="15">
-        <v>20</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="11"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="C4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B0943-5517-4C96-B39B-0CC4976B4BF9}">
+  <dimension ref="C2:E103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="79.5703125" customWidth="1"/>
+    <col min="5" max="5" width="145.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>24</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>26</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>31</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>32</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
+        <v>33</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="4">
+        <v>34</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <v>35</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
+        <v>37</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <v>38</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="4">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="4">
+        <v>41</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="4">
+        <v>42</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="4">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="4">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
+        <v>45</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="4">
+        <v>46</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
+        <v>47</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="4">
+        <v>48</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="4">
+        <v>49</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="4">
+        <v>50</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="4">
+        <v>51</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="4">
+        <v>52</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="4">
+        <v>53</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="4">
+        <v>54</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="4">
+        <v>55</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="4">
+        <v>56</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="4">
+        <v>57</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="4">
+        <v>58</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="4">
+        <v>59</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="4">
+        <v>60</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="4">
+        <v>61</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="4">
+        <v>62</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="4">
+        <v>63</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="4">
+        <v>64</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="4">
+        <v>65</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="4">
+        <v>66</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="4">
+        <v>67</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="4">
+        <v>68</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="4">
+        <v>69</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="4">
+        <v>70</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="4">
+        <v>71</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="4">
+        <v>72</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="4">
+        <v>73</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="4">
+        <v>74</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="4">
+        <v>75</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="4">
+        <v>76</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="4">
+        <v>77</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="4">
+        <v>78</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="4">
+        <v>79</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="4">
+        <v>80</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="4">
+        <v>81</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="4">
+        <v>82</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="4">
+        <v>83</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="4">
+        <v>84</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="4">
+        <v>85</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="4">
+        <v>86</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="4">
+        <v>87</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="5">
+        <v>88</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="11"/>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="11"/>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="11"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="11"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="11"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="11"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="11"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="11"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="11"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E71AA4-A07A-4CC1-ACFA-54B206DAD614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F833539-211A-44BB-950A-2810FA4CD86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TG_CCP" sheetId="1" r:id="rId1"/>
-    <sheet name="TG_OOS" sheetId="2" r:id="rId2"/>
+    <sheet name="EQ_CCP" sheetId="3" r:id="rId2"/>
+    <sheet name="TG_OOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="226">
   <si>
     <t>1,2,23</t>
   </si>
@@ -677,6 +678,33 @@
   </si>
   <si>
     <t>Payment Successful (User Exit), User Logged-Out, New User Registered, Credentials, Card Info &amp; Pin/CVC Re-Entered</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>(a-z),(0-9)</t>
+  </si>
+  <si>
+    <t>(a-z),(0-9),"@",".","_"</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>{{()}]!@#$%^&amp;|,&gt;.*+/-?\~&lt;`:";'</t>
+  </si>
+  <si>
+    <t>{{()}]!#$%^&amp;|,&gt;.*+/-?\~&lt;`:";'</t>
   </si>
 </sst>
 </file>
@@ -952,15 +980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +990,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,20 +1305,20 @@
   <sheetData>
     <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
@@ -1299,7 +1327,7 @@
       <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="8"/>
@@ -1312,7 +1340,7 @@
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="8"/>
@@ -1325,7 +1353,7 @@
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="8"/>
@@ -1338,7 +1366,7 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="8"/>
@@ -1351,7 +1379,7 @@
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8"/>
@@ -1364,7 +1392,7 @@
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="8"/>
@@ -1377,7 +1405,7 @@
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="8"/>
@@ -1391,7 +1419,7 @@
       <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="8"/>
@@ -1405,7 +1433,7 @@
       <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8"/>
@@ -1419,7 +1447,7 @@
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="8"/>
@@ -1433,7 +1461,7 @@
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="8"/>
@@ -1447,7 +1475,7 @@
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="8"/>
@@ -1461,7 +1489,7 @@
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="8"/>
@@ -1475,7 +1503,7 @@
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="8"/>
@@ -1488,7 +1516,7 @@
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="8"/>
@@ -1501,7 +1529,7 @@
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="8"/>
@@ -1514,7 +1542,7 @@
       <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="8"/>
@@ -1527,7 +1555,7 @@
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="8"/>
@@ -1540,7 +1568,7 @@
       <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="8"/>
@@ -1553,7 +1581,7 @@
       <c r="D25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="8"/>
@@ -1576,10 +1604,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A174041-B557-4EC6-9346-CFCF3EF8DD6C}">
+  <dimension ref="C5:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B0943-5517-4C96-B39B-0CC4976B4BF9}">
   <dimension ref="C2:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
@@ -1591,11 +1722,11 @@
   <sheetData>
     <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="19"/>
@@ -1609,7 +1740,7 @@
       <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1620,7 +1751,7 @@
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1631,7 +1762,7 @@
       <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1642,7 +1773,7 @@
       <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1653,7 +1784,7 @@
       <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1664,7 +1795,7 @@
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1675,7 +1806,7 @@
       <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1686,7 +1817,7 @@
       <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1697,7 +1828,7 @@
       <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1708,7 +1839,7 @@
       <c r="D14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1719,7 +1850,7 @@
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1730,7 +1861,7 @@
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1741,7 +1872,7 @@
       <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1752,7 +1883,7 @@
       <c r="D18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1763,7 +1894,7 @@
       <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1774,7 +1905,7 @@
       <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1785,7 +1916,7 @@
       <c r="D21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1796,7 +1927,7 @@
       <c r="D22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1807,7 +1938,7 @@
       <c r="D23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1818,7 +1949,7 @@
       <c r="D24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1829,7 +1960,7 @@
       <c r="D25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1840,7 +1971,7 @@
       <c r="D26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1851,7 +1982,7 @@
       <c r="D27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1862,7 +1993,7 @@
       <c r="D28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1873,7 +2004,7 @@
       <c r="D29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1884,7 +2015,7 @@
       <c r="D30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1895,7 +2026,7 @@
       <c r="D31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="14" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1906,7 +2037,7 @@
       <c r="D32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="14" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1917,7 +2048,7 @@
       <c r="D33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1928,7 +2059,7 @@
       <c r="D34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1939,7 +2070,7 @@
       <c r="D35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1950,7 +2081,7 @@
       <c r="D36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1961,7 +2092,7 @@
       <c r="D37" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="14" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1972,7 +2103,7 @@
       <c r="D38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="14" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1983,7 +2114,7 @@
       <c r="D39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1994,7 +2125,7 @@
       <c r="D40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2005,7 +2136,7 @@
       <c r="D41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2016,7 +2147,7 @@
       <c r="D42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="14" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2027,7 +2158,7 @@
       <c r="D43" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2038,7 +2169,7 @@
       <c r="D44" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2049,7 +2180,7 @@
       <c r="D45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="14" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2060,7 +2191,7 @@
       <c r="D46" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2071,7 +2202,7 @@
       <c r="D47" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="14" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2082,7 +2213,7 @@
       <c r="D48" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2093,7 +2224,7 @@
       <c r="D49" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2104,7 +2235,7 @@
       <c r="D50" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2115,7 +2246,7 @@
       <c r="D51" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2126,7 +2257,7 @@
       <c r="D52" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2137,7 +2268,7 @@
       <c r="D53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="14" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2148,7 +2279,7 @@
       <c r="D54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="14" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2159,7 +2290,7 @@
       <c r="D55" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="14" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2170,7 +2301,7 @@
       <c r="D56" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2181,7 +2312,7 @@
       <c r="D57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="14" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2192,7 +2323,7 @@
       <c r="D58" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="14" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2203,7 +2334,7 @@
       <c r="D59" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="14" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2214,7 +2345,7 @@
       <c r="D60" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="14" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2225,7 +2356,7 @@
       <c r="D61" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="14" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2236,7 +2367,7 @@
       <c r="D62" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="14" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2247,7 +2378,7 @@
       <c r="D63" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="14" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2258,7 +2389,7 @@
       <c r="D64" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2269,7 +2400,7 @@
       <c r="D65" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="14" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2280,7 +2411,7 @@
       <c r="D66" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="14" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2291,7 +2422,7 @@
       <c r="D67" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2302,7 +2433,7 @@
       <c r="D68" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2313,7 +2444,7 @@
       <c r="D69" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2324,7 +2455,7 @@
       <c r="D70" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="14" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2335,7 +2466,7 @@
       <c r="D71" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2346,7 +2477,7 @@
       <c r="D72" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="14" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2357,7 +2488,7 @@
       <c r="D73" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="14" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2368,7 +2499,7 @@
       <c r="D74" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="14" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2379,7 +2510,7 @@
       <c r="D75" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="14" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2390,7 +2521,7 @@
       <c r="D76" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2401,7 +2532,7 @@
       <c r="D77" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="14" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2412,7 +2543,7 @@
       <c r="D78" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2423,7 +2554,7 @@
       <c r="D79" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="14" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2434,7 +2565,7 @@
       <c r="D80" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="14" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2445,7 +2576,7 @@
       <c r="D81" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="14" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2456,7 +2587,7 @@
       <c r="D82" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="14" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2467,7 +2598,7 @@
       <c r="D83" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="14" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2478,7 +2609,7 @@
       <c r="D84" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="14" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2489,7 +2620,7 @@
       <c r="D85" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="14" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2500,7 +2631,7 @@
       <c r="D86" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="14" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2511,7 +2642,7 @@
       <c r="D87" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="14" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2522,7 +2653,7 @@
       <c r="D88" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="14" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2533,7 +2664,7 @@
       <c r="D89" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="14" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2544,7 +2675,7 @@
       <c r="D90" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="14" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2555,7 +2686,7 @@
       <c r="D91" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="14" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2566,7 +2697,7 @@
       <c r="D92" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="14" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2577,7 +2708,7 @@
       <c r="D93" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="15" t="s">
         <v>216</v>
       </c>
     </row>
